--- a/biology/Botanique/Androsace_tapete/Androsace_tapete.xlsx
+++ b/biology/Botanique/Androsace_tapete/Androsace_tapete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace tapete est une espèce de plantes à fleurs dicotylédones de la famille des Primulaceae, originaire de la région himalayenne. Ce sont des plantes herbacées vivaces qui poussent en formant des coussins compacts sur les pentes herbeuses et dans les éboulis, entre 3 500 et 5 000 mètres d'altitude.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (29 avril 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (29 avril 2019) :
 Androsace densa Pax &amp; K.Hoffm.
 Androsace gustavii R.Knuth
-Androsace sessiliflora Turrill[2]
+Androsace sessiliflora Turrill
 Primula tapete Kuntze</t>
         </is>
       </c>
